--- a/data/542/BOKFS/old/Monthly_FS.xlsx
+++ b/data/542/BOKFS/old/Monthly_FS.xlsx
@@ -1158,9 +1158,11 @@
     <col min="741" max="741" width="13.0" customWidth="true"/>
     <col min="742" max="742" width="13.0" customWidth="true"/>
     <col min="743" max="743" width="13.0" customWidth="true"/>
-    <col min="744" max="744" width="4.0" customWidth="true"/>
-    <col min="745" max="745" width="4.0" customWidth="true"/>
-    <col min="746" max="746" width="4.0" customWidth="true"/>
+    <col min="744" max="744" width="13.0" customWidth="true"/>
+    <col min="745" max="745" width="13.0" customWidth="true"/>
+    <col min="746" max="746" width="13.0" customWidth="true"/>
+    <col min="747" max="747" width="4.0" customWidth="true"/>
+    <col min="748" max="748" width="4.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4894,6 +4896,16 @@
           <t>2021/10</t>
         </is>
       </c>
+      <c r="ABS1" s="2" t="inlineStr">
+        <is>
+          <t>2021/11</t>
+        </is>
+      </c>
+      <c r="ABT1" s="2" t="inlineStr">
+        <is>
+          <t>2021/12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -7133,17 +7145,21 @@
       <c r="ABO2" s="3" t="n">
         <v>157801.3</v>
       </c>
-      <c r="ABP2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABQ2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABR2" s="1" t="inlineStr">
+      <c r="ABP2" s="3" t="n">
+        <v>159183.4</v>
+      </c>
+      <c r="ABQ2" s="3" t="n">
+        <v>164303.5</v>
+      </c>
+      <c r="ABR2" s="3" t="n">
+        <v>164193.2</v>
+      </c>
+      <c r="ABS2" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABT2" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9387,17 +9403,21 @@
       <c r="ABO3" s="3" t="n">
         <v>157260.5</v>
       </c>
-      <c r="ABP3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABQ3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABR3" s="1" t="inlineStr">
+      <c r="ABP3" s="3" t="n">
+        <v>158333.9</v>
+      </c>
+      <c r="ABQ3" s="3" t="n">
+        <v>162709.4</v>
+      </c>
+      <c r="ABR3" s="3" t="n">
+        <v>164180.0</v>
+      </c>
+      <c r="ABS3" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABT3" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11641,17 +11661,21 @@
       <c r="ABO4" s="3" t="n">
         <v>1292206.2</v>
       </c>
-      <c r="ABP4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABQ4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABR4" s="1" t="inlineStr">
+      <c r="ABP4" s="3" t="n">
+        <v>1314565.4</v>
+      </c>
+      <c r="ABQ4" s="3" t="n">
+        <v>1335457.0</v>
+      </c>
+      <c r="ABR4" s="3" t="n">
+        <v>1333678.1</v>
+      </c>
+      <c r="ABS4" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABT4" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14135,17 +14159,21 @@
       <c r="ABO5" s="3" t="n">
         <v>1296969.0</v>
       </c>
-      <c r="ABP5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABQ5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABR5" s="1" t="inlineStr">
+      <c r="ABP5" s="3" t="n">
+        <v>1304432.6</v>
+      </c>
+      <c r="ABQ5" s="3" t="n">
+        <v>1328615.1</v>
+      </c>
+      <c r="ABR5" s="3" t="n">
+        <v>1334026.5</v>
+      </c>
+      <c r="ABS5" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABT5" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -16389,17 +16417,21 @@
       <c r="ABO6" s="3" t="n">
         <v>3439194.8</v>
       </c>
-      <c r="ABP6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABQ6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABR6" s="1" t="inlineStr">
+      <c r="ABP6" s="3" t="n">
+        <v>3489987.3</v>
+      </c>
+      <c r="ABQ6" s="3" t="n">
+        <v>3503617.5</v>
+      </c>
+      <c r="ABR6" s="3" t="n">
+        <v>3563925.5</v>
+      </c>
+      <c r="ABS6" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABT6" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -19267,17 +19299,21 @@
       <c r="ABO7" s="3" t="n">
         <v>3445243.0</v>
       </c>
-      <c r="ABP7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABQ7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABR7" s="1" t="inlineStr">
+      <c r="ABP7" s="3" t="n">
+        <v>3487634.1</v>
+      </c>
+      <c r="ABQ7" s="3" t="n">
+        <v>3513680.6</v>
+      </c>
+      <c r="ABR7" s="3" t="n">
+        <v>3544235.1</v>
+      </c>
+      <c r="ABS7" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABT7" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -21999,19 +22035,23 @@
         <v>4706061.6</v>
       </c>
       <c r="ABO8" s="3" t="n">
-        <v>4743591.9</v>
-      </c>
-      <c r="ABP8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABQ8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABR8" s="1" t="inlineStr">
+        <v>4743642.4</v>
+      </c>
+      <c r="ABP8" s="3" t="n">
+        <v>4770358.7</v>
+      </c>
+      <c r="ABQ8" s="3" t="n">
+        <v>4784728.5</v>
+      </c>
+      <c r="ABR8" s="3" t="n">
+        <v>4837613.6</v>
+      </c>
+      <c r="ABS8" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABT8" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -24879,17 +24919,21 @@
       <c r="ABO9" s="3" t="n">
         <v>4758873.8</v>
       </c>
-      <c r="ABP9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABQ9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABR9" s="1" t="inlineStr">
+      <c r="ABP9" s="3" t="n">
+        <v>4794292.5</v>
+      </c>
+      <c r="ABQ9" s="3" t="n">
+        <v>4831463.5</v>
+      </c>
+      <c r="ABR9" s="3" t="n">
+        <v>4852992.5</v>
+      </c>
+      <c r="ABS9" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABT9" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -27397,17 +27441,21 @@
       <c r="ABO10" s="3" t="n">
         <v>1780412.4</v>
       </c>
-      <c r="ABP10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABQ10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABR10" s="1" t="inlineStr">
+      <c r="ABP10" s="3" t="n">
+        <v>1790113.0</v>
+      </c>
+      <c r="ABQ10" s="3" t="n">
+        <v>1811188.6</v>
+      </c>
+      <c r="ABR10" s="3" t="n">
+        <v>1823227.4</v>
+      </c>
+      <c r="ABS10" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABT10" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -30598,12 +30646,16 @@
       <c r="ABP11" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="ABQ11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABR11" s="1" t="inlineStr">
+      <c r="ABQ11" s="5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="ABR11" s="5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="ABS11" s="5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="ABT11" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -33501,7 +33553,13 @@
       <c r="ABQ12" s="6" t="n">
         <v>1.953</v>
       </c>
-      <c r="ABR12" s="1" t="inlineStr">
+      <c r="ABR12" s="6" t="n">
+        <v>2.302</v>
+      </c>
+      <c r="ABS12" s="6" t="n">
+        <v>2.492</v>
+      </c>
+      <c r="ABT12" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -36499,7 +36557,13 @@
       <c r="ABQ13" s="5" t="n">
         <v>0.98</v>
       </c>
-      <c r="ABR13" s="1" t="inlineStr">
+      <c r="ABR13" s="5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="ABS13" s="5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="ABT13" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -38386,7 +38450,7 @@
           <t/>
         </is>
       </c>
-      <c r="NM14" s="5" t="n">
+      <c r="NM14" s="3" t="n">
         <v>13.2</v>
       </c>
       <c r="NN14" s="5" t="n">
@@ -38404,7 +38468,7 @@
       <c r="NR14" s="5" t="n">
         <v>18.77</v>
       </c>
-      <c r="NS14" s="5" t="n">
+      <c r="NS14" s="3" t="n">
         <v>18.1</v>
       </c>
       <c r="NT14" s="5" t="n">
@@ -38422,7 +38486,7 @@
       <c r="NX14" s="5" t="n">
         <v>16.84</v>
       </c>
-      <c r="NY14" s="5" t="n">
+      <c r="NY14" s="3" t="n">
         <v>14.4</v>
       </c>
       <c r="NZ14" s="5" t="n">
@@ -38434,7 +38498,7 @@
       <c r="OB14" s="5" t="n">
         <v>14.92</v>
       </c>
-      <c r="OC14" s="5" t="n">
+      <c r="OC14" s="3" t="n">
         <v>14.9</v>
       </c>
       <c r="OD14" s="5" t="n">
@@ -38458,7 +38522,7 @@
       <c r="OJ14" s="5" t="n">
         <v>13.51</v>
       </c>
-      <c r="OK14" s="5" t="n">
+      <c r="OK14" s="3" t="n">
         <v>12.2</v>
       </c>
       <c r="OL14" s="5" t="n">
@@ -38488,10 +38552,10 @@
       <c r="OT14" s="5" t="n">
         <v>11.97</v>
       </c>
-      <c r="OU14" s="5" t="n">
+      <c r="OU14" s="3" t="n">
         <v>11.4</v>
       </c>
-      <c r="OV14" s="5" t="n">
+      <c r="OV14" s="3" t="n">
         <v>11.5</v>
       </c>
       <c r="OW14" s="5" t="n">
@@ -38536,10 +38600,10 @@
       <c r="PJ14" s="5" t="n">
         <v>14.89</v>
       </c>
-      <c r="PK14" s="5" t="n">
+      <c r="PK14" s="4" t="n">
         <v>12.0</v>
       </c>
-      <c r="PL14" s="5" t="n">
+      <c r="PL14" s="3" t="n">
         <v>12.5</v>
       </c>
       <c r="PM14" s="5" t="n">
@@ -38554,7 +38618,7 @@
       <c r="PP14" s="5" t="n">
         <v>11.57</v>
       </c>
-      <c r="PQ14" s="5" t="n">
+      <c r="PQ14" s="3" t="n">
         <v>11.3</v>
       </c>
       <c r="PR14" s="5" t="n">
@@ -38632,7 +38696,7 @@
       <c r="QP14" s="5" t="n">
         <v>13.56</v>
       </c>
-      <c r="QQ14" s="5" t="n">
+      <c r="QQ14" s="4" t="n">
         <v>14.0</v>
       </c>
       <c r="QR14" s="5" t="n">
@@ -38671,7 +38735,7 @@
       <c r="RC14" s="5" t="n">
         <v>7.26</v>
       </c>
-      <c r="RD14" s="5" t="n">
+      <c r="RD14" s="4" t="n">
         <v>7.0</v>
       </c>
       <c r="RE14" s="5" t="n">
@@ -38680,10 +38744,10 @@
       <c r="RF14" s="5" t="n">
         <v>5.63</v>
       </c>
-      <c r="RG14" s="5" t="n">
+      <c r="RG14" s="4" t="n">
         <v>5.0</v>
       </c>
-      <c r="RH14" s="5" t="n">
+      <c r="RH14" s="3" t="n">
         <v>4.8</v>
       </c>
       <c r="RI14" s="5" t="n">
@@ -38764,7 +38828,7 @@
       <c r="SH14" s="5" t="n">
         <v>5.01</v>
       </c>
-      <c r="SI14" s="5" t="n">
+      <c r="SI14" s="3" t="n">
         <v>4.8</v>
       </c>
       <c r="SJ14" s="5" t="n">
@@ -38779,7 +38843,7 @@
       <c r="SM14" s="5" t="n">
         <v>4.02</v>
       </c>
-      <c r="SN14" s="5" t="n">
+      <c r="SN14" s="4" t="n">
         <v>4.0</v>
       </c>
       <c r="SO14" s="5" t="n">
@@ -38806,22 +38870,22 @@
       <c r="SV14" s="5" t="n">
         <v>4.29</v>
       </c>
-      <c r="SW14" s="5" t="n">
+      <c r="SW14" s="3" t="n">
         <v>4.3</v>
       </c>
-      <c r="SX14" s="5" t="n">
+      <c r="SX14" s="3" t="n">
         <v>4.3</v>
       </c>
       <c r="SY14" s="5" t="n">
         <v>4.29</v>
       </c>
-      <c r="SZ14" s="5" t="n">
+      <c r="SZ14" s="3" t="n">
         <v>4.3</v>
       </c>
       <c r="TA14" s="5" t="n">
         <v>4.28</v>
       </c>
-      <c r="TB14" s="5" t="n">
+      <c r="TB14" s="3" t="n">
         <v>4.3</v>
       </c>
       <c r="TC14" s="5" t="n">
@@ -38923,7 +38987,7 @@
       <c r="UI14" s="5" t="n">
         <v>3.49</v>
       </c>
-      <c r="UJ14" s="5" t="n">
+      <c r="UJ14" s="3" t="n">
         <v>3.7</v>
       </c>
       <c r="UK14" s="5" t="n">
@@ -38965,10 +39029,10 @@
       <c r="UW14" s="5" t="n">
         <v>4.63</v>
       </c>
-      <c r="UX14" s="5" t="n">
+      <c r="UX14" s="3" t="n">
         <v>4.6</v>
       </c>
-      <c r="UY14" s="5" t="n">
+      <c r="UY14" s="3" t="n">
         <v>4.6</v>
       </c>
       <c r="UZ14" s="5" t="n">
@@ -38989,10 +39053,10 @@
       <c r="VE14" s="5" t="n">
         <v>4.98</v>
       </c>
-      <c r="VF14" s="5" t="n">
+      <c r="VF14" s="4" t="n">
         <v>5.0</v>
       </c>
-      <c r="VG14" s="5" t="n">
+      <c r="VG14" s="4" t="n">
         <v>5.0</v>
       </c>
       <c r="VH14" s="5" t="n">
@@ -39028,7 +39092,7 @@
       <c r="VR14" s="5" t="n">
         <v>4.88</v>
       </c>
-      <c r="VS14" s="5" t="n">
+      <c r="VS14" s="4" t="n">
         <v>4.0</v>
       </c>
       <c r="VT14" s="5" t="n">
@@ -39043,7 +39107,7 @@
       <c r="VW14" s="5" t="n">
         <v>1.77</v>
       </c>
-      <c r="VX14" s="5" t="n">
+      <c r="VX14" s="3" t="n">
         <v>1.8</v>
       </c>
       <c r="VY14" s="5" t="n">
@@ -39064,28 +39128,28 @@
       <c r="WD14" s="5" t="n">
         <v>1.99</v>
       </c>
-      <c r="WE14" s="5" t="n">
+      <c r="WE14" s="4" t="n">
         <v>2.0</v>
       </c>
-      <c r="WF14" s="5" t="n">
+      <c r="WF14" s="4" t="n">
         <v>2.0</v>
       </c>
-      <c r="WG14" s="5" t="n">
+      <c r="WG14" s="4" t="n">
         <v>2.0</v>
       </c>
-      <c r="WH14" s="5" t="n">
+      <c r="WH14" s="4" t="n">
         <v>2.0</v>
       </c>
       <c r="WI14" s="5" t="n">
         <v>2.01</v>
       </c>
-      <c r="WJ14" s="5" t="n">
+      <c r="WJ14" s="4" t="n">
         <v>2.0</v>
       </c>
       <c r="WK14" s="5" t="n">
         <v>2.01</v>
       </c>
-      <c r="WL14" s="5" t="n">
+      <c r="WL14" s="4" t="n">
         <v>2.0</v>
       </c>
       <c r="WM14" s="5" t="n">
@@ -39103,7 +39167,7 @@
       <c r="WQ14" s="5" t="n">
         <v>2.37</v>
       </c>
-      <c r="WR14" s="5" t="n">
+      <c r="WR14" s="3" t="n">
         <v>2.5</v>
       </c>
       <c r="WS14" s="5" t="n">
@@ -39121,7 +39185,7 @@
       <c r="WW14" s="5" t="n">
         <v>3.02</v>
       </c>
-      <c r="WX14" s="5" t="n">
+      <c r="WX14" s="3" t="n">
         <v>3.2</v>
       </c>
       <c r="WY14" s="5" t="n">
@@ -39163,13 +39227,13 @@
       <c r="XK14" s="5" t="n">
         <v>3.08</v>
       </c>
-      <c r="XL14" s="5" t="n">
+      <c r="XL14" s="4" t="n">
         <v>3.0</v>
       </c>
       <c r="XM14" s="5" t="n">
         <v>2.99</v>
       </c>
-      <c r="XN14" s="5" t="n">
+      <c r="XN14" s="3" t="n">
         <v>2.8</v>
       </c>
       <c r="XO14" s="5" t="n">
@@ -39199,22 +39263,22 @@
       <c r="XW14" s="5" t="n">
         <v>2.48</v>
       </c>
-      <c r="XX14" s="5" t="n">
+      <c r="XX14" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="XY14" s="5" t="n">
+      <c r="XY14" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="XZ14" s="5" t="n">
+      <c r="XZ14" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="YA14" s="5" t="n">
+      <c r="YA14" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="YB14" s="5" t="n">
+      <c r="YB14" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="YC14" s="5" t="n">
+      <c r="YC14" s="3" t="n">
         <v>2.5</v>
       </c>
       <c r="YD14" s="5" t="n">
@@ -39370,7 +39434,7 @@
       <c r="AAB14" s="5" t="n">
         <v>1.47</v>
       </c>
-      <c r="AAC14" s="5" t="n">
+      <c r="AAC14" s="3" t="n">
         <v>1.5</v>
       </c>
       <c r="AAD14" s="5" t="n">
@@ -39379,7 +39443,7 @@
       <c r="AAE14" s="5" t="n">
         <v>1.49</v>
       </c>
-      <c r="AAF14" s="5" t="n">
+      <c r="AAF14" s="3" t="n">
         <v>1.5</v>
       </c>
       <c r="AAG14" s="5" t="n">
@@ -39442,7 +39506,7 @@
       <c r="AAZ14" s="5" t="n">
         <v>0.74</v>
       </c>
-      <c r="ABA14" s="5" t="n">
+      <c r="ABA14" s="3" t="n">
         <v>0.7</v>
       </c>
       <c r="ABB14" s="5" t="n">
@@ -39451,7 +39515,7 @@
       <c r="ABC14" s="5" t="n">
         <v>0.48</v>
       </c>
-      <c r="ABD14" s="5" t="n">
+      <c r="ABD14" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="ABE14" s="5" t="n">
@@ -39493,7 +39557,13 @@
       <c r="ABQ14" s="5" t="n">
         <v>0.77</v>
       </c>
-      <c r="ABR14" s="1" t="inlineStr">
+      <c r="ABR14" s="5" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="ABS14" s="6" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="ABT14" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -42616,12 +42686,18 @@
       <c r="ABP15" s="5" t="n">
         <v>1.09</v>
       </c>
-      <c r="ABQ15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABR15" s="1" t="inlineStr">
+      <c r="ABQ15" s="5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="ABR15" s="5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="ABS15" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABT15" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
